--- a/resources/ExcelFiles/all.xlsx
+++ b/resources/ExcelFiles/all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="0" windowWidth="12735" windowHeight="4980"/>
+    <workbookView xWindow="27750" yWindow="0" windowWidth="12735" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="CloudService" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12320" uniqueCount="3325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12298" uniqueCount="3324">
   <si>
     <t>Name of the Cloud Service</t>
   </si>
@@ -10773,9 +10773,6 @@
   </si>
   <si>
     <t>PlanningAndBudgeting</t>
-  </si>
-  <si>
-    <t>58 days</t>
   </si>
   <si>
     <t>ChangeDirector enables organisations to measure and track performance, value and benefits. It provides a central repository to replace in-house spreadsheets, databases and SharePoint systems. The standard setup can be configured to support the needs of your organisation with a rich set of standard reports</t>
@@ -12107,7 +12104,7 @@
   <dimension ref="A1:AK293"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G255" sqref="G255"/>
+      <selection activeCell="G237" sqref="G237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12273,7 +12270,7 @@
         <v>2548</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>2549</v>
@@ -19508,7 +19505,7 @@
         <v>2909</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="E66" s="28" t="s">
         <v>2910</v>
@@ -20296,7 +20293,7 @@
         <v>2959</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>2960</v>
@@ -22559,7 +22556,7 @@
         <v>3091</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="E93" s="28" t="s">
         <v>3092</v>
@@ -24480,7 +24477,7 @@
         <v>1943</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="E110" s="28" t="s">
         <v>1944</v>
@@ -24593,7 +24590,7 @@
         <v>1943</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="E111" s="28" t="s">
         <v>1946</v>
@@ -24706,7 +24703,7 @@
         <v>1943</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>1948</v>
@@ -35048,11 +35045,11 @@
       <c r="W203" s="22">
         <v>100</v>
       </c>
-      <c r="X203" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y203" s="32" t="s">
-        <v>3176</v>
+      <c r="X203" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y203" s="32">
+        <v>58</v>
       </c>
       <c r="Z203" s="32" t="s">
         <v>56</v>
@@ -35161,11 +35158,11 @@
       <c r="W204" s="22">
         <v>100</v>
       </c>
-      <c r="X204" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y204" s="32" t="s">
-        <v>3176</v>
+      <c r="X204" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y204" s="32">
+        <v>58</v>
       </c>
       <c r="Z204" s="32" t="s">
         <v>56</v>
@@ -35215,7 +35212,7 @@
         <v>2194</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="E205" s="28" t="s">
         <v>2195</v>
@@ -35274,11 +35271,11 @@
       <c r="W205" s="22">
         <v>100</v>
       </c>
-      <c r="X205" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y205" s="32" t="s">
-        <v>3176</v>
+      <c r="X205" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y205" s="32">
+        <v>58</v>
       </c>
       <c r="Z205" s="32" t="s">
         <v>56</v>
@@ -35328,7 +35325,7 @@
         <v>2197</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="E206" s="28" t="s">
         <v>2198</v>
@@ -35387,11 +35384,11 @@
       <c r="W206" s="22">
         <v>100</v>
       </c>
-      <c r="X206" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y206" s="32" t="s">
-        <v>3176</v>
+      <c r="X206" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y206" s="32">
+        <v>58</v>
       </c>
       <c r="Z206" s="32" t="s">
         <v>56</v>
@@ -35500,11 +35497,11 @@
       <c r="W207" s="22">
         <v>100</v>
       </c>
-      <c r="X207" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y207" s="32" t="s">
-        <v>3176</v>
+      <c r="X207" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y207" s="32">
+        <v>58</v>
       </c>
       <c r="Z207" s="32" t="s">
         <v>56</v>
@@ -35613,11 +35610,11 @@
       <c r="W208" s="22">
         <v>100</v>
       </c>
-      <c r="X208" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y208" s="32" t="s">
-        <v>3176</v>
+      <c r="X208" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y208" s="32">
+        <v>58</v>
       </c>
       <c r="Z208" s="32" t="s">
         <v>56</v>
@@ -35726,11 +35723,11 @@
       <c r="W209" s="22">
         <v>100</v>
       </c>
-      <c r="X209" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y209" s="32" t="s">
-        <v>3176</v>
+      <c r="X209" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y209" s="32">
+        <v>58</v>
       </c>
       <c r="Z209" s="32" t="s">
         <v>56</v>
@@ -35780,7 +35777,7 @@
         <v>2212</v>
       </c>
       <c r="D210" s="27" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="E210" s="28" t="s">
         <v>2213</v>
@@ -35839,11 +35836,11 @@
       <c r="W210" s="22">
         <v>100</v>
       </c>
-      <c r="X210" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y210" s="32" t="s">
-        <v>3176</v>
+      <c r="X210" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y210" s="32">
+        <v>58</v>
       </c>
       <c r="Z210" s="32" t="s">
         <v>56</v>
@@ -35952,11 +35949,11 @@
       <c r="W211" s="22">
         <v>100</v>
       </c>
-      <c r="X211" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y211" s="32" t="s">
-        <v>3176</v>
+      <c r="X211" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y211" s="32">
+        <v>58</v>
       </c>
       <c r="Z211" s="32" t="s">
         <v>56</v>
@@ -36065,11 +36062,11 @@
       <c r="W212" s="22">
         <v>100</v>
       </c>
-      <c r="X212" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y212" s="32" t="s">
-        <v>3176</v>
+      <c r="X212" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y212" s="32">
+        <v>58</v>
       </c>
       <c r="Z212" s="32" t="s">
         <v>56</v>
@@ -36178,11 +36175,11 @@
       <c r="W213" s="22">
         <v>100</v>
       </c>
-      <c r="X213" s="32" t="s">
-        <v>3176</v>
-      </c>
-      <c r="Y213" s="32" t="s">
-        <v>3176</v>
+      <c r="X213" s="32">
+        <v>58</v>
+      </c>
+      <c r="Y213" s="32">
+        <v>58</v>
       </c>
       <c r="Z213" s="32" t="s">
         <v>56</v>
@@ -38828,7 +38825,7 @@
         <v>2341</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="D237" s="27" t="s">
         <v>2342</v>
@@ -39170,7 +39167,7 @@
         <v>2356</v>
       </c>
       <c r="D240" s="27" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="E240" s="28" t="s">
         <v>2357</v>
@@ -39292,7 +39289,7 @@
         <v>1921</v>
       </c>
       <c r="G241" s="30" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="H241" s="31" t="s">
         <v>1842</v>
@@ -40071,7 +40068,7 @@
         <v>2393</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D248" s="27" t="s">
         <v>2394</v>
@@ -40167,7 +40164,7 @@
         <v>120</v>
       </c>
       <c r="AI248" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ248" s="31" t="s">
         <v>2396</v>
@@ -40184,7 +40181,7 @@
         <v>2393</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D249" s="27" t="s">
         <v>2394</v>
@@ -40244,7 +40241,7 @@
         <v>5</v>
       </c>
       <c r="W249" s="22" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="X249" s="32" t="s">
         <v>56</v>
@@ -40280,7 +40277,7 @@
         <v>120</v>
       </c>
       <c r="AI249" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ249" s="31" t="s">
         <v>144</v>
@@ -40297,7 +40294,7 @@
         <v>2393</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D250" s="27" t="s">
         <v>2394</v>
@@ -40357,7 +40354,7 @@
         <v>5</v>
       </c>
       <c r="W250" s="22" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="X250" s="32" t="s">
         <v>56</v>
@@ -40393,7 +40390,7 @@
         <v>120</v>
       </c>
       <c r="AI250" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ250" s="31" t="s">
         <v>144</v>
@@ -40410,7 +40407,7 @@
         <v>2393</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D251" s="27" t="s">
         <v>2394</v>
@@ -40470,7 +40467,7 @@
         <v>5</v>
       </c>
       <c r="W251" s="22" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="X251" s="32" t="s">
         <v>56</v>
@@ -40506,7 +40503,7 @@
         <v>120</v>
       </c>
       <c r="AI251" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ251" s="31" t="s">
         <v>144</v>
@@ -40523,7 +40520,7 @@
         <v>2393</v>
       </c>
       <c r="C252" s="27" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D252" s="27" t="s">
         <v>2394</v>
@@ -40583,7 +40580,7 @@
         <v>5</v>
       </c>
       <c r="W252" s="22" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="X252" s="32" t="s">
         <v>56</v>
@@ -40619,7 +40616,7 @@
         <v>120</v>
       </c>
       <c r="AI252" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ252" s="31" t="s">
         <v>144</v>
@@ -40636,7 +40633,7 @@
         <v>2393</v>
       </c>
       <c r="C253" s="27" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="D253" s="27" t="s">
         <v>2394</v>
@@ -40732,7 +40729,7 @@
         <v>120</v>
       </c>
       <c r="AI253" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ253" s="31" t="s">
         <v>144</v>
@@ -40845,7 +40842,7 @@
         <v>134</v>
       </c>
       <c r="AI254" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ254" s="31" t="s">
         <v>2411</v>
@@ -40874,7 +40871,7 @@
         <v>1922</v>
       </c>
       <c r="G255" s="30" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="H255" s="31" t="s">
         <v>2417</v>
@@ -40943,10 +40940,10 @@
         <v>56</v>
       </c>
       <c r="AD255" s="31" t="s">
+        <v>3179</v>
+      </c>
+      <c r="AE255" s="32" t="s">
         <v>3180</v>
-      </c>
-      <c r="AE255" s="32" t="s">
-        <v>3181</v>
       </c>
       <c r="AF255" s="31" t="s">
         <v>56</v>
@@ -40978,7 +40975,7 @@
         <v>2422</v>
       </c>
       <c r="D256" s="27" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="E256" s="28" t="s">
         <v>2423</v>
@@ -41056,10 +41053,10 @@
         <v>56</v>
       </c>
       <c r="AD256" s="31" t="s">
+        <v>3182</v>
+      </c>
+      <c r="AE256" s="32" t="s">
         <v>3183</v>
-      </c>
-      <c r="AE256" s="32" t="s">
-        <v>3184</v>
       </c>
       <c r="AF256" s="31" t="s">
         <v>56</v>
@@ -41074,7 +41071,7 @@
         <v>136</v>
       </c>
       <c r="AJ256" s="31" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="AK256" s="32" t="s">
         <v>149</v>
@@ -41169,10 +41166,10 @@
         <v>56</v>
       </c>
       <c r="AD257" s="31" t="s">
+        <v>3184</v>
+      </c>
+      <c r="AE257" s="32" t="s">
         <v>3185</v>
-      </c>
-      <c r="AE257" s="32" t="s">
-        <v>3186</v>
       </c>
       <c r="AF257" s="31" t="s">
         <v>56</v>
@@ -41187,7 +41184,7 @@
         <v>136</v>
       </c>
       <c r="AJ257" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK257" s="32" t="s">
         <v>2003</v>
@@ -41282,10 +41279,10 @@
         <v>56</v>
       </c>
       <c r="AD258" s="31" t="s">
+        <v>3186</v>
+      </c>
+      <c r="AE258" s="32" t="s">
         <v>3187</v>
-      </c>
-      <c r="AE258" s="32" t="s">
-        <v>3188</v>
       </c>
       <c r="AF258" s="31" t="s">
         <v>56</v>
@@ -41300,7 +41297,7 @@
         <v>136</v>
       </c>
       <c r="AJ258" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK258" s="32" t="s">
         <v>2003</v>
@@ -41395,10 +41392,10 @@
         <v>56</v>
       </c>
       <c r="AD259" s="31" t="s">
+        <v>3186</v>
+      </c>
+      <c r="AE259" s="32" t="s">
         <v>3187</v>
-      </c>
-      <c r="AE259" s="32" t="s">
-        <v>3188</v>
       </c>
       <c r="AF259" s="31" t="s">
         <v>56</v>
@@ -41413,7 +41410,7 @@
         <v>136</v>
       </c>
       <c r="AJ259" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK259" s="32" t="s">
         <v>2003</v>
@@ -41508,10 +41505,10 @@
         <v>56</v>
       </c>
       <c r="AD260" s="31" t="s">
+        <v>3188</v>
+      </c>
+      <c r="AE260" s="32" t="s">
         <v>3189</v>
-      </c>
-      <c r="AE260" s="32" t="s">
-        <v>3190</v>
       </c>
       <c r="AF260" s="31" t="s">
         <v>56</v>
@@ -41526,7 +41523,7 @@
         <v>136</v>
       </c>
       <c r="AJ260" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK260" s="32" t="s">
         <v>2003</v>
@@ -41639,7 +41636,7 @@
         <v>136</v>
       </c>
       <c r="AJ261" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK261" s="32" t="s">
         <v>2455</v>
@@ -41737,7 +41734,7 @@
         <v>117</v>
       </c>
       <c r="AE262" s="32" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="AF262" s="31" t="s">
         <v>56</v>
@@ -41752,7 +41749,7 @@
         <v>136</v>
       </c>
       <c r="AJ262" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK262" s="32" t="s">
         <v>157</v>
@@ -41865,7 +41862,7 @@
         <v>136</v>
       </c>
       <c r="AJ263" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK263" s="32" t="s">
         <v>2003</v>
@@ -41882,7 +41879,7 @@
         <v>2471</v>
       </c>
       <c r="D264" s="27" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="E264" s="28" t="s">
         <v>2472</v>
@@ -41978,7 +41975,7 @@
         <v>136</v>
       </c>
       <c r="AJ264" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK264" s="32" t="s">
         <v>2003</v>
@@ -42091,7 +42088,7 @@
         <v>136</v>
       </c>
       <c r="AJ265" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK265" s="32" t="s">
         <v>2003</v>
@@ -42201,10 +42198,10 @@
         <v>129</v>
       </c>
       <c r="AI266" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ266" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK266" s="32" t="s">
         <v>2003</v>
@@ -42314,10 +42311,10 @@
         <v>129</v>
       </c>
       <c r="AI267" s="33" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="AJ267" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK267" s="32" t="s">
         <v>2003</v>
@@ -42430,7 +42427,7 @@
         <v>136</v>
       </c>
       <c r="AJ268" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK268" s="32" t="s">
         <v>2003</v>
@@ -42543,7 +42540,7 @@
         <v>136</v>
       </c>
       <c r="AJ269" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK269" s="32" t="s">
         <v>2003</v>
@@ -42641,7 +42638,7 @@
         <v>56</v>
       </c>
       <c r="AE270" s="32" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="AF270" s="31" t="s">
         <v>56</v>
@@ -42656,7 +42653,7 @@
         <v>136</v>
       </c>
       <c r="AJ270" s="31" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="AK270" s="32" t="s">
         <v>2003</v>
@@ -42769,7 +42766,7 @@
         <v>136</v>
       </c>
       <c r="AJ271" s="31" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="AK271" s="32" t="s">
         <v>2003</v>
@@ -42783,10 +42780,10 @@
         <v>2517</v>
       </c>
       <c r="C272" s="27" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="D272" s="27" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="E272" s="28" t="s">
         <v>2518</v>
@@ -42882,7 +42879,7 @@
         <v>136</v>
       </c>
       <c r="AJ272" s="31" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="AK272" s="32" t="s">
         <v>2003</v>
@@ -42995,7 +42992,7 @@
         <v>136</v>
       </c>
       <c r="AJ273" s="31" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="AK273" s="32" t="s">
         <v>2003</v>
@@ -43003,25 +43000,25 @@
     </row>
     <row r="274" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A274" s="27" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B274" s="27" t="s">
         <v>3193</v>
       </c>
-      <c r="B274" s="27" t="s">
+      <c r="C274" s="27" t="s">
         <v>3194</v>
       </c>
-      <c r="C274" s="27" t="s">
+      <c r="D274" s="27" t="s">
         <v>3195</v>
       </c>
-      <c r="D274" s="27" t="s">
+      <c r="E274" s="28" t="s">
         <v>3196</v>
-      </c>
-      <c r="E274" s="28" t="s">
-        <v>3197</v>
       </c>
       <c r="F274" s="29" t="s">
         <v>1922</v>
       </c>
       <c r="G274" s="30" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="H274" s="31" t="s">
         <v>1802</v>
@@ -43090,10 +43087,10 @@
         <v>56</v>
       </c>
       <c r="AD274" s="31" t="s">
+        <v>3198</v>
+      </c>
+      <c r="AE274" s="32" t="s">
         <v>3199</v>
-      </c>
-      <c r="AE274" s="32" t="s">
-        <v>3200</v>
       </c>
       <c r="AF274" s="31" t="s">
         <v>56</v>
@@ -43108,7 +43105,7 @@
         <v>136</v>
       </c>
       <c r="AJ274" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK274" s="32" t="s">
         <v>2003</v>
@@ -43116,19 +43113,19 @@
     </row>
     <row r="275" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A275" s="27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B275" s="27" t="s">
         <v>3201</v>
       </c>
-      <c r="B275" s="27" t="s">
+      <c r="C275" s="27" t="s">
         <v>3202</v>
       </c>
-      <c r="C275" s="27" t="s">
+      <c r="D275" s="27" t="s">
         <v>3203</v>
       </c>
-      <c r="D275" s="27" t="s">
+      <c r="E275" s="28" t="s">
         <v>3204</v>
-      </c>
-      <c r="E275" s="28" t="s">
-        <v>3205</v>
       </c>
       <c r="F275" s="29" t="s">
         <v>1921</v>
@@ -43218,10 +43215,10 @@
         <v>2454</v>
       </c>
       <c r="AI275" s="31" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="AJ275" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK275" s="32" t="s">
         <v>2003</v>
@@ -43229,19 +43226,19 @@
     </row>
     <row r="276" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A276" s="27" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B276" s="27" t="s">
         <v>3207</v>
       </c>
-      <c r="B276" s="27" t="s">
+      <c r="C276" s="27" t="s">
         <v>3208</v>
       </c>
-      <c r="C276" s="27" t="s">
+      <c r="D276" s="27" t="s">
         <v>3209</v>
       </c>
-      <c r="D276" s="27" t="s">
+      <c r="E276" s="28" t="s">
         <v>3210</v>
-      </c>
-      <c r="E276" s="28" t="s">
-        <v>3211</v>
       </c>
       <c r="F276" s="29" t="s">
         <v>1921</v>
@@ -43250,10 +43247,10 @@
         <v>1073</v>
       </c>
       <c r="H276" s="31" t="s">
+        <v>3211</v>
+      </c>
+      <c r="I276" s="30" t="s">
         <v>3212</v>
-      </c>
-      <c r="I276" s="30" t="s">
-        <v>3213</v>
       </c>
       <c r="J276" s="32" t="s">
         <v>47</v>
@@ -43334,27 +43331,27 @@
         <v>136</v>
       </c>
       <c r="AJ276" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK276" s="32" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="277" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A277" s="27" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B277" s="27" t="s">
         <v>3215</v>
       </c>
-      <c r="B277" s="27" t="s">
+      <c r="C277" s="27" t="s">
         <v>3216</v>
       </c>
-      <c r="C277" s="27" t="s">
+      <c r="D277" s="27" t="s">
         <v>3217</v>
       </c>
-      <c r="D277" s="27" t="s">
+      <c r="E277" s="28" t="s">
         <v>3218</v>
-      </c>
-      <c r="E277" s="28" t="s">
-        <v>3219</v>
       </c>
       <c r="F277" s="29" t="s">
         <v>1922</v>
@@ -43363,7 +43360,7 @@
         <v>1158</v>
       </c>
       <c r="H277" s="31" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="I277" s="30" t="s">
         <v>1888</v>
@@ -43447,7 +43444,7 @@
         <v>136</v>
       </c>
       <c r="AJ277" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK277" s="32" t="s">
         <v>149</v>
@@ -43455,19 +43452,19 @@
     </row>
     <row r="278" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A278" s="27" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B278" s="27" t="s">
         <v>3220</v>
       </c>
-      <c r="B278" s="27" t="s">
+      <c r="C278" s="27" t="s">
         <v>3221</v>
       </c>
-      <c r="C278" s="27" t="s">
+      <c r="D278" s="27" t="s">
         <v>3222</v>
       </c>
-      <c r="D278" s="27" t="s">
+      <c r="E278" s="28" t="s">
         <v>3223</v>
-      </c>
-      <c r="E278" s="28" t="s">
-        <v>3224</v>
       </c>
       <c r="F278" s="29" t="s">
         <v>1921</v>
@@ -43479,7 +43476,7 @@
         <v>1802</v>
       </c>
       <c r="I278" s="30" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="J278" s="32" t="s">
         <v>2418</v>
@@ -43560,7 +43557,7 @@
         <v>136</v>
       </c>
       <c r="AJ278" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK278" s="32" t="s">
         <v>149</v>
@@ -43568,25 +43565,25 @@
     </row>
     <row r="279" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A279" s="27" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B279" s="27" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C279" s="27" t="s">
         <v>3226</v>
       </c>
-      <c r="B279" s="27" t="s">
-        <v>3221</v>
-      </c>
-      <c r="C279" s="27" t="s">
+      <c r="D279" s="27" t="s">
         <v>3227</v>
       </c>
-      <c r="D279" s="27" t="s">
+      <c r="E279" s="28" t="s">
         <v>3228</v>
-      </c>
-      <c r="E279" s="28" t="s">
-        <v>3229</v>
       </c>
       <c r="F279" s="29" t="s">
         <v>1922</v>
       </c>
       <c r="G279" s="30" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="H279" s="31" t="s">
         <v>1842</v>
@@ -43673,7 +43670,7 @@
         <v>136</v>
       </c>
       <c r="AJ279" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK279" s="32" t="s">
         <v>149</v>
@@ -43681,19 +43678,19 @@
     </row>
     <row r="280" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A280" s="27" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B280" s="27" t="s">
         <v>3231</v>
       </c>
-      <c r="B280" s="27" t="s">
+      <c r="C280" s="27" t="s">
         <v>3232</v>
       </c>
-      <c r="C280" s="27" t="s">
+      <c r="D280" s="27" t="s">
         <v>3233</v>
       </c>
-      <c r="D280" s="27" t="s">
+      <c r="E280" s="28" t="s">
         <v>3234</v>
-      </c>
-      <c r="E280" s="28" t="s">
-        <v>3235</v>
       </c>
       <c r="F280" s="29" t="s">
         <v>1922</v>
@@ -43786,7 +43783,7 @@
         <v>136</v>
       </c>
       <c r="AJ280" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK280" s="32" t="s">
         <v>149</v>
@@ -43794,25 +43791,25 @@
     </row>
     <row r="281" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A281" s="27" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B281" s="27" t="s">
         <v>3236</v>
       </c>
-      <c r="B281" s="27" t="s">
+      <c r="C281" s="27" t="s">
         <v>3237</v>
       </c>
-      <c r="C281" s="27" t="s">
+      <c r="D281" s="27" t="s">
         <v>3238</v>
       </c>
-      <c r="D281" s="27" t="s">
+      <c r="E281" s="28" t="s">
         <v>3239</v>
-      </c>
-      <c r="E281" s="28" t="s">
-        <v>3240</v>
       </c>
       <c r="F281" s="29" t="s">
         <v>1922</v>
       </c>
       <c r="G281" s="30" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="H281" s="31" t="s">
         <v>1842</v>
@@ -43881,10 +43878,10 @@
         <v>56</v>
       </c>
       <c r="AD281" s="31" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="AE281" s="32" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="AF281" s="31" t="s">
         <v>56</v>
@@ -43899,7 +43896,7 @@
         <v>136</v>
       </c>
       <c r="AJ281" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK281" s="32" t="s">
         <v>149</v>
@@ -43907,19 +43904,19 @@
     </row>
     <row r="282" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A282" s="27" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B282" s="27" t="s">
         <v>3243</v>
       </c>
-      <c r="B282" s="27" t="s">
+      <c r="C282" s="27" t="s">
         <v>3244</v>
       </c>
-      <c r="C282" s="27" t="s">
+      <c r="D282" s="27" t="s">
         <v>3245</v>
       </c>
-      <c r="D282" s="27" t="s">
+      <c r="E282" s="28" t="s">
         <v>3246</v>
-      </c>
-      <c r="E282" s="28" t="s">
-        <v>3247</v>
       </c>
       <c r="F282" s="29" t="s">
         <v>1922</v>
@@ -44012,7 +44009,7 @@
         <v>136</v>
       </c>
       <c r="AJ282" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK282" s="32" t="s">
         <v>149</v>
@@ -44020,19 +44017,19 @@
     </row>
     <row r="283" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A283" s="27" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B283" s="27" t="s">
         <v>3248</v>
       </c>
-      <c r="B283" s="27" t="s">
+      <c r="C283" s="27" t="s">
         <v>3249</v>
       </c>
-      <c r="C283" s="27" t="s">
+      <c r="D283" s="27" t="s">
         <v>3250</v>
       </c>
-      <c r="D283" s="27" t="s">
+      <c r="E283" s="28" t="s">
         <v>3251</v>
-      </c>
-      <c r="E283" s="28" t="s">
-        <v>3252</v>
       </c>
       <c r="F283" s="29" t="s">
         <v>1922</v>
@@ -44044,7 +44041,7 @@
         <v>1842</v>
       </c>
       <c r="I283" s="30" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="J283" s="32" t="s">
         <v>2034</v>
@@ -44053,7 +44050,7 @@
         <v>56</v>
       </c>
       <c r="L283" s="31" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="M283" s="32" t="s">
         <v>77</v>
@@ -44125,7 +44122,7 @@
         <v>136</v>
       </c>
       <c r="AJ283" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK283" s="32" t="s">
         <v>149</v>
@@ -44133,19 +44130,19 @@
     </row>
     <row r="284" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A284" s="27" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B284" s="27" t="s">
         <v>3255</v>
       </c>
-      <c r="B284" s="27" t="s">
+      <c r="C284" s="27" t="s">
         <v>3256</v>
       </c>
-      <c r="C284" s="27" t="s">
+      <c r="D284" s="27" t="s">
         <v>3257</v>
       </c>
-      <c r="D284" s="27" t="s">
+      <c r="E284" s="28" t="s">
         <v>3258</v>
-      </c>
-      <c r="E284" s="28" t="s">
-        <v>3259</v>
       </c>
       <c r="F284" s="29" t="s">
         <v>1922</v>
@@ -44157,7 +44154,7 @@
         <v>1847</v>
       </c>
       <c r="I284" s="30" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="J284" s="32" t="s">
         <v>2034</v>
@@ -44238,7 +44235,7 @@
         <v>136</v>
       </c>
       <c r="AJ284" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK284" s="32" t="s">
         <v>149</v>
@@ -44246,19 +44243,19 @@
     </row>
     <row r="285" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A285" s="27" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B285" s="27" t="s">
         <v>3261</v>
       </c>
-      <c r="B285" s="27" t="s">
+      <c r="C285" s="27" t="s">
         <v>3262</v>
       </c>
-      <c r="C285" s="27" t="s">
+      <c r="D285" s="27" t="s">
         <v>3263</v>
       </c>
-      <c r="D285" s="27" t="s">
+      <c r="E285" s="28" t="s">
         <v>3264</v>
-      </c>
-      <c r="E285" s="28" t="s">
-        <v>3265</v>
       </c>
       <c r="F285" s="29" t="s">
         <v>1921</v>
@@ -44333,7 +44330,7 @@
         <v>56</v>
       </c>
       <c r="AD285" s="31" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="AE285" s="32" t="s">
         <v>117</v>
@@ -44351,7 +44348,7 @@
         <v>136</v>
       </c>
       <c r="AJ285" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK285" s="32" t="s">
         <v>149</v>
@@ -44359,19 +44356,19 @@
     </row>
     <row r="286" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A286" s="27" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B286" s="27" t="s">
         <v>3267</v>
       </c>
-      <c r="B286" s="27" t="s">
+      <c r="C286" s="27" t="s">
         <v>3268</v>
       </c>
-      <c r="C286" s="27" t="s">
+      <c r="D286" s="27" t="s">
         <v>3269</v>
       </c>
-      <c r="D286" s="27" t="s">
+      <c r="E286" s="28" t="s">
         <v>3270</v>
-      </c>
-      <c r="E286" s="28" t="s">
-        <v>3271</v>
       </c>
       <c r="F286" s="29" t="s">
         <v>1922</v>
@@ -44392,7 +44389,7 @@
         <v>56</v>
       </c>
       <c r="L286" s="31" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="M286" s="32" t="s">
         <v>75</v>
@@ -44464,7 +44461,7 @@
         <v>136</v>
       </c>
       <c r="AJ286" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK286" s="32" t="s">
         <v>149</v>
@@ -44472,19 +44469,19 @@
     </row>
     <row r="287" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A287" s="27" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B287" s="27" t="s">
         <v>3272</v>
       </c>
-      <c r="B287" s="27" t="s">
+      <c r="C287" s="27" t="s">
         <v>3273</v>
       </c>
-      <c r="C287" s="27" t="s">
+      <c r="D287" s="27" t="s">
         <v>3274</v>
       </c>
-      <c r="D287" s="27" t="s">
+      <c r="E287" s="28" t="s">
         <v>3275</v>
-      </c>
-      <c r="E287" s="28" t="s">
-        <v>3276</v>
       </c>
       <c r="F287" s="29" t="s">
         <v>1921</v>
@@ -44505,7 +44502,7 @@
         <v>56</v>
       </c>
       <c r="L287" s="31" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="M287" s="32" t="s">
         <v>75</v>
@@ -44585,19 +44582,19 @@
     </row>
     <row r="288" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A288" s="27" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B288" s="27" t="s">
         <v>2355</v>
       </c>
       <c r="C288" s="27" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D288" s="27" t="s">
         <v>3278</v>
       </c>
-      <c r="D288" s="27" t="s">
+      <c r="E288" s="28" t="s">
         <v>3279</v>
-      </c>
-      <c r="E288" s="28" t="s">
-        <v>3280</v>
       </c>
       <c r="F288" s="29" t="s">
         <v>1922</v>
@@ -44618,7 +44615,7 @@
         <v>56</v>
       </c>
       <c r="L288" s="31" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="M288" s="32" t="s">
         <v>75</v>
@@ -44672,10 +44669,10 @@
         <v>56</v>
       </c>
       <c r="AD288" s="31" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="AE288" s="32" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="AF288" s="31" t="s">
         <v>56</v>
@@ -44698,19 +44695,19 @@
     </row>
     <row r="289" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A289" s="27" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="B289" s="27" t="s">
         <v>2355</v>
       </c>
       <c r="C289" s="27" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D289" s="27" t="s">
         <v>3282</v>
       </c>
-      <c r="D289" s="27" t="s">
+      <c r="E289" s="28" t="s">
         <v>3283</v>
-      </c>
-      <c r="E289" s="28" t="s">
-        <v>3284</v>
       </c>
       <c r="F289" s="29" t="s">
         <v>1921</v>
@@ -44722,16 +44719,16 @@
         <v>1842</v>
       </c>
       <c r="I289" s="30" t="s">
+        <v>3284</v>
+      </c>
+      <c r="J289" s="32" t="s">
         <v>3285</v>
       </c>
-      <c r="J289" s="32" t="s">
-        <v>3286</v>
-      </c>
       <c r="K289" s="32" t="s">
         <v>56</v>
       </c>
       <c r="L289" s="31" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="M289" s="32" t="s">
         <v>75</v>
@@ -44785,10 +44782,10 @@
         <v>56</v>
       </c>
       <c r="AD289" s="31" t="s">
+        <v>3286</v>
+      </c>
+      <c r="AE289" s="32" t="s">
         <v>3287</v>
-      </c>
-      <c r="AE289" s="32" t="s">
-        <v>3288</v>
       </c>
       <c r="AF289" s="31" t="s">
         <v>56</v>
@@ -44803,7 +44800,7 @@
         <v>136</v>
       </c>
       <c r="AJ289" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK289" s="32" t="s">
         <v>149</v>
@@ -44811,19 +44808,19 @@
     </row>
     <row r="290" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A290" s="27" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B290" s="27" t="s">
         <v>3289</v>
       </c>
-      <c r="B290" s="27" t="s">
+      <c r="C290" s="27" t="s">
         <v>3290</v>
       </c>
-      <c r="C290" s="27" t="s">
+      <c r="D290" s="27" t="s">
         <v>3291</v>
       </c>
-      <c r="D290" s="27" t="s">
+      <c r="E290" s="28" t="s">
         <v>3292</v>
-      </c>
-      <c r="E290" s="28" t="s">
-        <v>3293</v>
       </c>
       <c r="F290" s="29" t="s">
         <v>1921</v>
@@ -44835,7 +44832,7 @@
         <v>1804</v>
       </c>
       <c r="I290" s="30" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="J290" s="32" t="s">
         <v>2418</v>
@@ -44898,10 +44895,10 @@
         <v>56</v>
       </c>
       <c r="AD290" s="31" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="AE290" s="32" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="AF290" s="31" t="s">
         <v>56</v>
@@ -44916,7 +44913,7 @@
         <v>136</v>
       </c>
       <c r="AJ290" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK290" s="32" t="s">
         <v>157</v>
@@ -44924,19 +44921,19 @@
     </row>
     <row r="291" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A291" s="27" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B291" s="27" t="s">
         <v>2336</v>
       </c>
       <c r="C291" s="27" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D291" s="27" t="s">
         <v>3296</v>
       </c>
-      <c r="D291" s="27" t="s">
+      <c r="E291" s="28" t="s">
         <v>3297</v>
-      </c>
-      <c r="E291" s="28" t="s">
-        <v>3298</v>
       </c>
       <c r="F291" s="29" t="s">
         <v>1921</v>
@@ -44957,7 +44954,7 @@
         <v>56</v>
       </c>
       <c r="L291" s="31" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="M291" s="32" t="s">
         <v>75</v>
@@ -45029,7 +45026,7 @@
         <v>136</v>
       </c>
       <c r="AJ291" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK291" s="32" t="s">
         <v>2003</v>
@@ -45037,19 +45034,19 @@
     </row>
     <row r="292" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A292" s="27" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B292" s="27" t="s">
         <v>3299</v>
       </c>
-      <c r="B292" s="27" t="s">
+      <c r="C292" s="27" t="s">
         <v>3300</v>
       </c>
-      <c r="C292" s="27" t="s">
+      <c r="D292" s="27" t="s">
         <v>3301</v>
       </c>
-      <c r="D292" s="27" t="s">
+      <c r="E292" s="28" t="s">
         <v>3302</v>
-      </c>
-      <c r="E292" s="28" t="s">
-        <v>3303</v>
       </c>
       <c r="F292" s="29" t="s">
         <v>1921</v>
@@ -45064,13 +45061,13 @@
         <v>1907</v>
       </c>
       <c r="J292" s="32" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="K292" s="32" t="s">
         <v>56</v>
       </c>
       <c r="L292" s="31" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="M292" s="32" t="s">
         <v>75</v>
@@ -45142,7 +45139,7 @@
         <v>136</v>
       </c>
       <c r="AJ292" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK292" s="32" t="s">
         <v>157</v>
@@ -45150,19 +45147,19 @@
     </row>
     <row r="293" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A293" s="27" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B293" s="27" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C293" s="27" t="s">
         <v>3304</v>
       </c>
-      <c r="B293" s="27" t="s">
-        <v>3300</v>
-      </c>
-      <c r="C293" s="27" t="s">
+      <c r="D293" s="27" t="s">
         <v>3305</v>
       </c>
-      <c r="D293" s="27" t="s">
+      <c r="E293" s="28" t="s">
         <v>3306</v>
-      </c>
-      <c r="E293" s="28" t="s">
-        <v>3307</v>
       </c>
       <c r="F293" s="29" t="s">
         <v>1921</v>
@@ -45174,7 +45171,7 @@
         <v>1842</v>
       </c>
       <c r="I293" s="30" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="J293" s="32" t="s">
         <v>50</v>
@@ -45183,7 +45180,7 @@
         <v>56</v>
       </c>
       <c r="L293" s="31" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="M293" s="32" t="s">
         <v>75</v>
@@ -45255,7 +45252,7 @@
         <v>136</v>
       </c>
       <c r="AJ293" s="31" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="AK293" s="32" t="s">
         <v>157</v>

--- a/resources/ExcelFiles/all.xlsx
+++ b/resources/ExcelFiles/all.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14143" uniqueCount="3535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14144" uniqueCount="3535">
   <si>
     <t>Name of the Cloud Service</t>
   </si>
@@ -12889,8 +12889,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="Q309" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC84" sqref="AC84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40705,8 +40705,8 @@
       <c r="AB246" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AC246" s="31">
-        <v>12</v>
+      <c r="AC246" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="AD246" s="31" t="s">
         <v>56</v>

--- a/resources/ExcelFiles/all.xlsx
+++ b/resources/ExcelFiles/all.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14144" uniqueCount="3535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14144" uniqueCount="3536">
   <si>
     <t>Name of the Cloud Service</t>
   </si>
@@ -12252,6 +12252,9 @@
   </si>
   <si>
     <t>United Kingdom, USA, Europe, United Kingdom, Switzerland</t>
+  </si>
+  <si>
+    <t>invoice</t>
   </si>
 </sst>
 </file>
@@ -12889,8 +12892,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q309" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC84" sqref="AC84"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18159,7 +18162,7 @@
         <v>1841</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>1879</v>
+        <v>3535</v>
       </c>
       <c r="J47" s="32" t="s">
         <v>50</v>
@@ -21097,7 +21100,7 @@
         <v>2817</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>1879</v>
+        <v>3535</v>
       </c>
       <c r="J73" s="32" t="s">
         <v>2911</v>
